--- a/src/main/resources/templates/demo.xlsx
+++ b/src/main/resources/templates/demo.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28020" windowHeight="13300"/>
+    <workbookView windowWidth="27680" windowHeight="12620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="个人信息" sheetId="1" r:id="rId1"/>
     <sheet name="户籍信息" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>姓名</t>
   </si>
@@ -57,6 +58,15 @@
   </si>
   <si>
     <t>月球</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -64,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,6 +99,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,17 +126,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,8 +187,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,83 +226,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,31 +253,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,145 +403,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +454,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,48 +463,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,147 +497,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,7 +1019,7 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1106,4 +1116,417 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>